--- a/Stats Sheet.xlsx
+++ b/Stats Sheet.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monke\Documents\__Software Development\repos\rpg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monke\Documents\__Software Development\repos\RPG\rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17890" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player" sheetId="1" r:id="rId1"/>
-    <sheet name="Enemy" sheetId="2" r:id="rId2"/>
+    <sheet name="Soul" sheetId="3" r:id="rId1"/>
+    <sheet name="Player" sheetId="1" r:id="rId2"/>
+    <sheet name="Enemy" sheetId="2" r:id="rId3"/>
+    <sheet name="Notes" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,18 +26,97 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sean Langiewicz</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sean Langiewicz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of hits to kill enemy at same level
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sean Langiewicz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hits to kill enemy at same level
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sean Langiewicz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Multiplier on top of standard attack
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Player Level</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Base Health</t>
   </si>
   <si>
-    <t>Base Damage</t>
-  </si>
-  <si>
     <t>Enemy Name</t>
   </si>
   <si>
@@ -70,13 +151,163 @@
   </si>
   <si>
     <t>Thug</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Hits to kill</t>
+  </si>
+  <si>
+    <t>Hits to kill enemy at same level</t>
+  </si>
+  <si>
+    <t>Hits to kill player at same level</t>
+  </si>
+  <si>
+    <t>Abilities</t>
+  </si>
+  <si>
+    <t>Increase in damage</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x1.5</t>
+  </si>
+  <si>
+    <t># of abilities casts for full energy</t>
+  </si>
+  <si>
+    <t>Speed to reach full energy</t>
+  </si>
+  <si>
+    <t>Leveling up</t>
+  </si>
+  <si>
+    <t>Enemy kills to level up at level 1</t>
+  </si>
+  <si>
+    <t>XP per enemy at level 1</t>
+  </si>
+  <si>
+    <t>XP to level up at level 1</t>
+  </si>
+  <si>
+    <t>Enemy kills to level up at level 2</t>
+  </si>
+  <si>
+    <t>XP per enemy at level 2</t>
+  </si>
+  <si>
+    <t>XP to level up at level 2</t>
+  </si>
+  <si>
+    <t>Player Details</t>
+  </si>
+  <si>
+    <t>Mult</t>
+  </si>
+  <si>
+    <t>L.U</t>
+  </si>
+  <si>
+    <t>XP to level up</t>
+  </si>
+  <si>
+    <t>EXP per enemy Kill</t>
+  </si>
+  <si>
+    <t>Enemies per level</t>
+  </si>
+  <si>
+    <t>Base Damage (per hit)</t>
+  </si>
+  <si>
+    <t>Typical Ability Damage</t>
+  </si>
+  <si>
+    <t>Base Enemy Details</t>
+  </si>
+  <si>
+    <t>Base Damage ( per hit)</t>
+  </si>
+  <si>
+    <t>Enemy Big Hit</t>
+  </si>
+  <si>
+    <t>Damage (DPS)</t>
+  </si>
+  <si>
+    <t>Per hit</t>
+  </si>
+  <si>
+    <t>Attack speed</t>
+  </si>
+  <si>
+    <t>hits to kill enemy</t>
+  </si>
+  <si>
+    <t>hits to kill player</t>
+  </si>
+  <si>
+    <t>level up</t>
+  </si>
+  <si>
+    <t>cumulative</t>
+  </si>
+  <si>
+    <t>Lower level by 6</t>
+  </si>
+  <si>
+    <t>Lower level by 5</t>
+  </si>
+  <si>
+    <t>Lower level by 4</t>
+  </si>
+  <si>
+    <t>Lower level by 3</t>
+  </si>
+  <si>
+    <t>Lower level by 2</t>
+  </si>
+  <si>
+    <t>Lower level by 1</t>
+  </si>
+  <si>
+    <t>Same level</t>
+  </si>
+  <si>
+    <t>Higher level by 1</t>
+  </si>
+  <si>
+    <t>Higher level by 2</t>
+  </si>
+  <si>
+    <t>Higher level by 3</t>
+  </si>
+  <si>
+    <t>Higher level by 4</t>
+  </si>
+  <si>
+    <t>Higher level by 5</t>
+  </si>
+  <si>
+    <t>Higher level by 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +315,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -101,12 +378,199 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,87 +885,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2">
-        <v>400</v>
-      </c>
-      <c r="D2">
-        <v>500</v>
-      </c>
-      <c r="E2">
-        <v>600</v>
-      </c>
-      <c r="F2">
-        <v>700</v>
-      </c>
-      <c r="G2">
-        <v>800</v>
-      </c>
-      <c r="H2">
-        <v>900</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>4000</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -510,10 +1049,864 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="11"/>
+    <col min="7" max="7" width="8.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="8.7265625" style="11"/>
+    <col min="18" max="18" width="11.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="10">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10">
+        <v>7</v>
+      </c>
+      <c r="K1" s="10">
+        <v>8</v>
+      </c>
+      <c r="L1" s="10">
+        <v>9</v>
+      </c>
+      <c r="M1" s="10">
+        <v>10</v>
+      </c>
+      <c r="N1" s="10">
+        <v>11</v>
+      </c>
+      <c r="O1" s="10">
+        <v>12</v>
+      </c>
+      <c r="P1" s="10">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>14</v>
+      </c>
+      <c r="R1" s="10">
+        <v>15</v>
+      </c>
+      <c r="S1" s="10">
+        <v>16</v>
+      </c>
+      <c r="T1" s="10">
+        <v>17</v>
+      </c>
+      <c r="U1" s="10">
+        <v>18</v>
+      </c>
+      <c r="V1" s="10">
+        <v>19</v>
+      </c>
+      <c r="W1" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="11">
+        <f>$C2+D2</f>
+        <v>4000</v>
+      </c>
+      <c r="F2" s="11">
+        <f>$C$2+E2</f>
+        <v>6000</v>
+      </c>
+      <c r="G2" s="11">
+        <f t="shared" ref="G2:W2" si="0">$C$2+F2</f>
+        <v>8000</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="L2" s="11">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="M2" s="11">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="N2" s="11">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+      <c r="O2" s="11">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="P2" s="11">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="Q2" s="11">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="R2" s="11">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="S2" s="11">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="T2" s="11">
+        <f t="shared" si="0"/>
+        <v>34000</v>
+      </c>
+      <c r="U2" s="11">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="V2" s="11">
+        <f t="shared" si="0"/>
+        <v>38000</v>
+      </c>
+      <c r="W2" s="11">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11">
+        <v>80</v>
+      </c>
+      <c r="E3" s="12">
+        <f>$C$3+D3</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:W3" si="1">$C$3+E3</f>
+        <v>120</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K3" s="12">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="L3" s="12">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="M3" s="12">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="N3" s="12">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="O3" s="12">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="P3" s="12">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="Q3" s="12">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="R3" s="12">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="S3" s="12">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="T3" s="12">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="U3" s="12">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="V3" s="12">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="W3" s="12">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="11">
+        <v>25</v>
+      </c>
+      <c r="E4" s="13">
+        <f>E2/E3</f>
+        <v>40</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" ref="F4:W4" si="2">F2/F3</f>
+        <v>50</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" si="2"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="shared" si="2"/>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="L4" s="13">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" si="2"/>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="shared" si="2"/>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="O4" s="13">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="P4" s="13">
+        <f t="shared" si="2"/>
+        <v>81.25</v>
+      </c>
+      <c r="Q4" s="13">
+        <f t="shared" si="2"/>
+        <v>82.352941176470594</v>
+      </c>
+      <c r="R4" s="13">
+        <f t="shared" si="2"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="S4" s="13">
+        <f t="shared" si="2"/>
+        <v>84.21052631578948</v>
+      </c>
+      <c r="T4" s="13">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="U4" s="13">
+        <f t="shared" si="2"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="V4" s="13">
+        <f t="shared" si="2"/>
+        <v>86.36363636363636</v>
+      </c>
+      <c r="W4" s="13">
+        <f t="shared" si="2"/>
+        <v>86.956521739130437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>40</v>
+      </c>
+      <c r="D5" s="12">
+        <v>200</v>
+      </c>
+      <c r="E5" s="11">
+        <v>240</v>
+      </c>
+      <c r="F5" s="11">
+        <v>280</v>
+      </c>
+      <c r="G5" s="11">
+        <v>320</v>
+      </c>
+      <c r="H5" s="11">
+        <v>360</v>
+      </c>
+      <c r="I5" s="11">
+        <v>400</v>
+      </c>
+      <c r="J5" s="11">
+        <v>440</v>
+      </c>
+      <c r="K5" s="11">
+        <v>480</v>
+      </c>
+      <c r="L5" s="11">
+        <v>520</v>
+      </c>
+      <c r="M5" s="11">
+        <v>560</v>
+      </c>
+      <c r="N5" s="11">
+        <v>600</v>
+      </c>
+      <c r="O5" s="11">
+        <v>640</v>
+      </c>
+      <c r="P5" s="11">
+        <v>680</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>720</v>
+      </c>
+      <c r="R5" s="11">
+        <v>760</v>
+      </c>
+      <c r="S5" s="11">
+        <v>800</v>
+      </c>
+      <c r="T5" s="11">
+        <v>840</v>
+      </c>
+      <c r="U5" s="11">
+        <v>880</v>
+      </c>
+      <c r="V5" s="11">
+        <v>920</v>
+      </c>
+      <c r="W5" s="11">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11">
+        <v>25</v>
+      </c>
+      <c r="H6" s="11">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11">
+        <v>35</v>
+      </c>
+      <c r="J6" s="11">
+        <v>40</v>
+      </c>
+      <c r="K6" s="11">
+        <v>45</v>
+      </c>
+      <c r="L6" s="11">
+        <v>50</v>
+      </c>
+      <c r="M6" s="11">
+        <v>55</v>
+      </c>
+      <c r="N6" s="11">
+        <v>60</v>
+      </c>
+      <c r="O6" s="11">
+        <v>65</v>
+      </c>
+      <c r="P6" s="11">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>75</v>
+      </c>
+      <c r="R6" s="11">
+        <v>80</v>
+      </c>
+      <c r="S6" s="11">
+        <v>85</v>
+      </c>
+      <c r="T6" s="11">
+        <v>90</v>
+      </c>
+      <c r="U6" s="11">
+        <v>95</v>
+      </c>
+      <c r="V6" s="11">
+        <v>100</v>
+      </c>
+      <c r="W6" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12">
+        <f>B7*D6</f>
+        <v>30</v>
+      </c>
+      <c r="E7" s="12">
+        <f>E6*$B$7</f>
+        <v>45</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" ref="F7:W7" si="3">F6*$B$7</f>
+        <v>60</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="P7" s="12">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="S7" s="12">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="T7" s="12">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="U7" s="12">
+        <f t="shared" si="3"/>
+        <v>285</v>
+      </c>
+      <c r="V7" s="12">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="W7" s="12">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12">
+        <f>$B$10*D6</f>
+        <v>20</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" ref="E10:W10" si="4">$B$10*E6</f>
+        <v>30</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="R10" s="12">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="S10" s="12">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="T10" s="12">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="U10" s="12">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="V10" s="12">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="W10" s="12">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="11">
+        <v>25</v>
+      </c>
+      <c r="D11" s="15">
+        <f>D5/$B$11</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" ref="E11:W11" si="5">E5/$B$11</f>
+        <v>9.6</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="5"/>
+        <v>11.2</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="5"/>
+        <v>12.8</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="5"/>
+        <v>14.4</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="5"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="5"/>
+        <v>19.2</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="5"/>
+        <v>20.8</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="5"/>
+        <v>22.4</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="5"/>
+        <v>25.6</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="5"/>
+        <v>27.2</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="5"/>
+        <v>28.8</v>
+      </c>
+      <c r="R11" s="15">
+        <f t="shared" si="5"/>
+        <v>30.4</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="5"/>
+        <v>33.6</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="5"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="5"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="5"/>
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14">
+        <f>$B$12*D11</f>
+        <v>24</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" ref="E12:W12" si="6">$B$12*E11</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="6"/>
+        <v>33.599999999999994</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="6"/>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="6"/>
+        <v>43.2</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="6"/>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="6"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="6"/>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="6"/>
+        <v>67.199999999999989</v>
+      </c>
+      <c r="N12" s="14">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="O12" s="14">
+        <f t="shared" si="6"/>
+        <v>76.800000000000011</v>
+      </c>
+      <c r="P12" s="14">
+        <f t="shared" si="6"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="6"/>
+        <v>86.4</v>
+      </c>
+      <c r="R12" s="14">
+        <f t="shared" si="6"/>
+        <v>91.199999999999989</v>
+      </c>
+      <c r="S12" s="14">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="T12" s="14">
+        <f t="shared" si="6"/>
+        <v>100.80000000000001</v>
+      </c>
+      <c r="U12" s="14">
+        <f t="shared" si="6"/>
+        <v>105.60000000000001</v>
+      </c>
+      <c r="V12" s="14">
+        <f t="shared" si="6"/>
+        <v>110.39999999999999</v>
+      </c>
+      <c r="W12" s="14">
+        <f t="shared" si="6"/>
+        <v>115.19999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -527,30 +1920,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -573,7 +1966,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>250</v>
@@ -596,36 +1989,36 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <f>B5/B6</f>
+        <f t="shared" ref="B4:G4" si="0">B5/B6</f>
         <v>40</v>
       </c>
       <c r="C4">
-        <f>C5/C6</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="D4">
-        <f>D5/D6</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E4">
-        <f>E5/E6</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F4">
-        <f>F5/F6</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G4">
-        <f>G5/G6</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -648,7 +2041,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -668,6 +2061,428 @@
       <c r="G6">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>250</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5">
+        <v>300</v>
+      </c>
+      <c r="F3" s="5">
+        <v>150</v>
+      </c>
+      <c r="G3" s="5">
+        <v>800</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5">
+        <v>50</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H9" s="6">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7000</v>
+      </c>
+      <c r="H10" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5">
+        <v>9000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>11000</v>
+      </c>
+      <c r="H12" s="6">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>13000</v>
+      </c>
+      <c r="H13" s="6">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H14" s="6">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5">
+        <v>17000</v>
+      </c>
+      <c r="H15" s="6">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5">
+        <v>19000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
